--- a/Report 6 ( project week 2)/report6_VoQuocHieu_50900836_TTCNPM.xlsx
+++ b/Report 6 ( project week 2)/report6_VoQuocHieu_50900836_TTCNPM.xlsx
@@ -264,7 +264,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="40">
   <si>
     <t>Project</t>
   </si>
@@ -381,6 +381,9 @@
   </si>
   <si>
     <t>Võ Quốc Hiếu</t>
+  </si>
+  <si>
+    <t>0,25</t>
   </si>
 </sst>
 </file>
@@ -3085,7 +3088,7 @@
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3249,10 +3252,10 @@
         <v>36</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>

--- a/Report 6 ( project week 2)/report6_VoQuocHieu_50900836_TTCNPM.xlsx
+++ b/Report 6 ( project week 2)/report6_VoQuocHieu_50900836_TTCNPM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="615" windowWidth="19440" windowHeight="9345"/>
@@ -14,7 +14,7 @@
     <definedName name="Excel_BuiltIn__FilterDatabase">Task!$A$4:$F$11</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Task!$A$1:$N$32</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -389,7 +389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[Red]&quot;-&quot;[$$-409]#,##0.00"/>
@@ -2873,7 +2873,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2908,7 +2907,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3084,11 +3082,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3242,7 +3240,7 @@
     </row>
     <row r="5" spans="1:29">
       <c r="A5" s="8">
-        <v>41003</v>
+        <v>41004</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>37</v>
@@ -3559,7 +3557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMJ24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
